--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf6-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf6-Bmpr2.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N2">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q2">
-        <v>10.369672852528</v>
+        <v>13.253762310731</v>
       </c>
       <c r="R2">
-        <v>93.32705567275201</v>
+        <v>119.283860796579</v>
       </c>
       <c r="S2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="T2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
         <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q3">
         <v>15.333308482866</v>
@@ -632,10 +632,10 @@
         <v>137.999776345794</v>
       </c>
       <c r="S3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="T3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q4">
-        <v>8.568547854778998</v>
+        <v>8.568547854779</v>
       </c>
       <c r="R4">
-        <v>77.11693069301099</v>
+        <v>77.116930693011</v>
       </c>
       <c r="S4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="T4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
     </row>
   </sheetData>
